--- a/Results/Calculation/dp-w2v.xlsx
+++ b/Results/Calculation/dp-w2v.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="G2">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="G4">
+        <v>0.71</v>
+      </c>
+      <c r="H4">
         <v>0.73</v>
-      </c>
-      <c r="H4">
-        <v>0.74</v>
       </c>
       <c r="I4">
         <v>0.83</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="G5">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="H5">
         <v>0.51</v>
       </c>
       <c r="I5">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
